--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_251.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_251.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N598"/>
+  <dimension ref="A1:N599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3253278732299805</v>
+        <v>0.9498863220214844</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001729965209960938</v>
+        <v>0.002202033996582031</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03881597518920898</v>
+        <v>0.07421994209289551</v>
       </c>
     </row>
     <row r="8">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0.05872021800983062</v>
+        <v>0.05871339120268942</v>
       </c>
     </row>
     <row r="593">
@@ -4625,116 +4625,126 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>11846.39025347428</v>
+        <v>12020.79025347428</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>16</v>
+        <v>0.9990645053271098</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>455</v>
+        <v>16</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>4</v>
+        <v>564</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0.3892753124237061</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1.066433906555176</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B598" t="inlineStr">
+      <c r="B599" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr">
+      <c r="C599" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D598" t="inlineStr">
+      <c r="D599" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E598" t="inlineStr">
+      <c r="E599" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F598" t="inlineStr">
+      <c r="F599" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G598" t="inlineStr">
+      <c r="G599" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
+      <c r="H599" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I598" t="inlineStr">
+      <c r="I599" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J598" t="inlineStr">
+      <c r="J599" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K598" t="inlineStr">
+      <c r="K599" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L598" t="inlineStr">
+      <c r="L599" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M598" t="inlineStr">
+      <c r="M599" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N598" t="inlineStr">
+      <c r="N599" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_251.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd53_251.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9498863220214844</v>
+        <v>0.0009200572967529297</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002202033996582031</v>
+        <v>0.0006389617919921875</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07421994209289551</v>
+        <v>0.09065008163452148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (2, 1), (1, 1), (2, 2), (0, 1), (1, 0), (1, 2)]</t>
+          <t>[[0, 2], [0, 0], [2, 1], [1, 1], [2, 2], [0, 1], [1, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>[(1, 2), (0, 0), (2, 2), (0, 1), (2, 0), (1, 0), (2, 1), (1, 1)]</t>
+          <t>[[1, 2], [0, 0], [2, 2], [0, 1], [2, 0], [1, 0], [2, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[(1, 1), (2, 0), (0, 2), (0, 0), (2, 1), (1, 0), (0, 1), (1, 2)]</t>
+          <t>[[1, 1], [2, 0], [0, 2], [0, 0], [2, 1], [1, 0], [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 0), (1, 0), (0, 0), (1, 1), (2, 2), (0, 2), (0, 1)]</t>
+          <t>[[1, 2], [2, 0], [1, 0], [0, 0], [1, 1], [2, 2], [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1.066433906555176</v>
+        <v>0.2146499156951904</v>
       </c>
     </row>
     <row r="599">
